--- a/작업일지 && 졸작자료/작업일지(전태준)/2월계획표.xlsx
+++ b/작업일지 && 졸작자료/작업일지(전태준)/2월계획표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전태준\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Breakout\작업일지 &amp;&amp; 졸작자료\작업일지(전태준)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB66FBC3-D263-4FB4-88A2-6E496AB053E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23829943-97CE-4D20-AC23-8DCCA55DAD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E879A3F-CAEF-45D6-8FC7-22C739FAC209}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 제안서에서의 계획은 1~3월에 모프 애니메이션 제작을 캐릭터 스킬은 2~3월까지 완성하는것 이였는데 우선 2월안에 중점기술중 하나인 모프애니메이션을 완성해서 이기술을 사용하는 요소에 적용시키는 것을 1순위에 목표로 하고 2순위로 캐릭터 기술을 만드는 것으로 했습니다. 캐릭터 기술의 경우 rootbone이 캐릭터 스켈레탈 메쉬에 적용 되어있어야하는데 현재 캐릭터에는 없어서 rootbone이 없이 만들수 있는 기술 2개만 일단 제작하려고 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모프 애니메이션 - 메쉬에서 데이터를 뽑아내어 동적으로 메쉬 생성, 해당 메쉬를 나중에 맵핑이 원할하게 가능하도록 삼각형을 기준으로 정렬하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,7 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 기술 2가지 완성 하기 (시간 되돌리기, 방어벽) - 방어벽 스킬의 경우 다른 스킬로 변경할수도 있을거 같습니다.</t>
+    <t>기존 제안서에서의 계획은 1~3월에 모프 애니메이션 제작을 캐릭터 스킬은 2~3월까지 완성하는것 이였는데 우선 2월안에 중점기술중 하나인 모프애니메이션을 완성해서 이기술을 사용하는 요소에 적용시키는 것을 1순위에 목표로 하고 2순위로 캐릭터 기술을 만드는 것으로 했습니다. 캐릭터 기술의 경우 rootbone이 캐릭터 스켈레탈 메쉬에 적용 되어있어야하는데 현재 캐릭터에는 없어서 rootbone이 없이 만들수 있는 기술 3개만 일단 제작하려고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 기술 3가지 완성 하기 - 배리어 스킬의 경우 다른 스킬로 변경할수도 있을거 같습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,52 +236,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,161 +601,161 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" ht="56.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-    </row>
-    <row r="6" spans="1:21" ht="56.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="54.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -769,48 +769,48 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:21" ht="61.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
